--- a/data/dogbreeddatafinal.xlsx
+++ b/data/dogbreeddatafinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A00C5C2A-8696-4F19-9471-B98E50B0D0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0A441-2056-440C-B025-CE3E531C840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,9 +688,6 @@
     <t>Diet</t>
   </si>
   <si>
-    <t>Doen't require meat</t>
-  </si>
-  <si>
     <t>Meat rich</t>
   </si>
   <si>
@@ -749,6 +746,9 @@
   </si>
   <si>
     <t>Hot</t>
+  </si>
+  <si>
+    <t>Doesn't require meat</t>
   </si>
 </sst>
 </file>
@@ -1694,34 +1694,34 @@
         <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" t="s">
         <v>237</v>
       </c>
-      <c r="O2" t="s">
-        <v>238</v>
-      </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,37 +1744,37 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
         <v>227</v>
       </c>
-      <c r="H3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" t="s">
-        <v>228</v>
-      </c>
       <c r="K3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,34 +1800,34 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,34 +1853,34 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,34 +1906,34 @@
         <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,34 +1959,34 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,34 +2012,34 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" t="s">
         <v>223</v>
       </c>
-      <c r="M8" t="s">
-        <v>224</v>
-      </c>
       <c r="N8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,34 +2065,34 @@
         <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L9" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P9" t="s">
         <v>239</v>
       </c>
-      <c r="P9" t="s">
-        <v>240</v>
-      </c>
       <c r="Q9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,34 +2118,34 @@
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L10" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,34 +2171,34 @@
         <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,34 +2224,34 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,34 +2277,34 @@
         <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O13" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" t="s">
         <v>239</v>
       </c>
-      <c r="P13" t="s">
-        <v>240</v>
-      </c>
       <c r="Q13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,34 +2330,34 @@
         <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L14" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O14" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" t="s">
         <v>239</v>
       </c>
-      <c r="P14" t="s">
-        <v>240</v>
-      </c>
       <c r="Q14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,34 +2383,34 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15" t="s">
         <v>237</v>
       </c>
-      <c r="O15" t="s">
-        <v>238</v>
-      </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,34 +2436,34 @@
         <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L16" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,34 +2489,34 @@
         <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L17" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,34 +2542,34 @@
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O18" t="s">
+        <v>238</v>
+      </c>
+      <c r="P18" t="s">
         <v>239</v>
       </c>
-      <c r="P18" t="s">
-        <v>240</v>
-      </c>
       <c r="Q18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,34 +2595,34 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,34 +2648,34 @@
         <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,34 +2701,34 @@
         <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s">
+        <v>236</v>
+      </c>
+      <c r="O21" t="s">
         <v>237</v>
       </c>
-      <c r="O21" t="s">
-        <v>238</v>
-      </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,34 +2754,34 @@
         <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,34 +2807,34 @@
         <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
+        <v>238</v>
+      </c>
+      <c r="P23" t="s">
         <v>239</v>
       </c>
-      <c r="P23" t="s">
-        <v>240</v>
-      </c>
       <c r="Q23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,34 +2860,34 @@
         <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,34 +2913,34 @@
         <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,34 +2966,34 @@
         <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,34 +3019,34 @@
         <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
         <v>237</v>
       </c>
-      <c r="O27" t="s">
-        <v>238</v>
-      </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,34 +3072,34 @@
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
+        <v>238</v>
+      </c>
+      <c r="P28" t="s">
         <v>239</v>
       </c>
-      <c r="P28" t="s">
-        <v>240</v>
-      </c>
       <c r="Q28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,39 +3125,39 @@
         <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
+        <v>238</v>
+      </c>
+      <c r="P29" t="s">
         <v>239</v>
       </c>
-      <c r="P29" t="s">
-        <v>240</v>
-      </c>
       <c r="Q29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -3178,34 +3178,34 @@
         <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,34 +3231,34 @@
         <v>159</v>
       </c>
       <c r="H31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,34 +3284,34 @@
         <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,34 +3337,34 @@
         <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,34 +3390,34 @@
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,34 +3443,34 @@
         <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
         <v>237</v>
       </c>
-      <c r="O35" t="s">
-        <v>238</v>
-      </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,34 +3496,34 @@
         <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s">
+        <v>222</v>
+      </c>
+      <c r="M36" t="s">
         <v>223</v>
       </c>
-      <c r="M36" t="s">
-        <v>224</v>
-      </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,34 +3549,34 @@
         <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,34 +3602,34 @@
         <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,34 +3655,34 @@
         <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O39" t="s">
+        <v>238</v>
+      </c>
+      <c r="P39" t="s">
         <v>239</v>
       </c>
-      <c r="P39" t="s">
-        <v>240</v>
-      </c>
       <c r="Q39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,34 +3708,34 @@
         <v>90</v>
       </c>
       <c r="H40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,34 +3761,34 @@
         <v>92</v>
       </c>
       <c r="H41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,34 +3814,34 @@
         <v>94</v>
       </c>
       <c r="H42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,34 +3867,34 @@
         <v>108</v>
       </c>
       <c r="H43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s">
+        <v>222</v>
+      </c>
+      <c r="M43" t="s">
         <v>223</v>
       </c>
-      <c r="M43" t="s">
-        <v>224</v>
-      </c>
       <c r="N43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,34 +3920,34 @@
         <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L44" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,34 +3973,34 @@
         <v>145</v>
       </c>
       <c r="H45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L45" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O45" t="s">
+        <v>238</v>
+      </c>
+      <c r="P45" t="s">
         <v>239</v>
       </c>
-      <c r="P45" t="s">
-        <v>240</v>
-      </c>
       <c r="Q45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,34 +4026,34 @@
         <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,34 +4079,34 @@
         <v>101</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L47" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,34 +4132,34 @@
         <v>146</v>
       </c>
       <c r="H48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L48" t="s">
+        <v>222</v>
+      </c>
+      <c r="M48" t="s">
         <v>223</v>
       </c>
-      <c r="M48" t="s">
-        <v>224</v>
-      </c>
       <c r="N48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,31 +4185,31 @@
         <v>147</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L49" t="s">
+        <v>222</v>
+      </c>
+      <c r="M49" t="s">
         <v>223</v>
       </c>
-      <c r="M49" t="s">
-        <v>224</v>
-      </c>
       <c r="N49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,34 +4235,34 @@
         <v>105</v>
       </c>
       <c r="H50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L50" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,34 +4288,34 @@
         <v>162</v>
       </c>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,34 +4341,34 @@
         <v>149</v>
       </c>
       <c r="H52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L52" t="s">
+        <v>222</v>
+      </c>
+      <c r="M52" t="s">
         <v>223</v>
       </c>
-      <c r="M52" t="s">
-        <v>224</v>
-      </c>
       <c r="N52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,34 +4394,34 @@
         <v>108</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N53" t="s">
+        <v>236</v>
+      </c>
+      <c r="O53" t="s">
         <v>237</v>
       </c>
-      <c r="O53" t="s">
-        <v>238</v>
-      </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,34 +4447,34 @@
         <v>110</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,34 +4500,34 @@
         <v>112</v>
       </c>
       <c r="H55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L55" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,37 +4550,37 @@
         <v>173</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O56" t="s">
+        <v>238</v>
+      </c>
+      <c r="P56" t="s">
         <v>239</v>
       </c>
-      <c r="P56" t="s">
-        <v>240</v>
-      </c>
       <c r="Q56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,34 +4606,34 @@
         <v>115</v>
       </c>
       <c r="H57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L57" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,34 +4659,34 @@
         <v>117</v>
       </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L58" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,34 +4712,34 @@
         <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,34 +4765,34 @@
         <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O60" t="s">
+        <v>238</v>
+      </c>
+      <c r="P60" t="s">
         <v>239</v>
       </c>
-      <c r="P60" t="s">
-        <v>240</v>
-      </c>
       <c r="Q60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,34 +4818,34 @@
         <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,34 +4871,34 @@
         <v>151</v>
       </c>
       <c r="H62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L62" t="s">
+        <v>222</v>
+      </c>
+      <c r="M62" t="s">
         <v>223</v>
       </c>
-      <c r="M62" t="s">
-        <v>224</v>
-      </c>
       <c r="N62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,34 +4924,34 @@
         <v>161</v>
       </c>
       <c r="H63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O63" t="s">
+        <v>238</v>
+      </c>
+      <c r="P63" t="s">
         <v>239</v>
       </c>
-      <c r="P63" t="s">
-        <v>240</v>
-      </c>
       <c r="Q63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,34 +4977,34 @@
         <v>160</v>
       </c>
       <c r="H64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O64" t="s">
+        <v>238</v>
+      </c>
+      <c r="P64" t="s">
         <v>239</v>
       </c>
-      <c r="P64" t="s">
-        <v>240</v>
-      </c>
       <c r="Q64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,34 +5030,34 @@
         <v>127</v>
       </c>
       <c r="H65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,34 +5083,34 @@
         <v>129</v>
       </c>
       <c r="H66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L66" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,34 +5136,34 @@
         <v>131</v>
       </c>
       <c r="H67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O67" t="s">
+        <v>238</v>
+      </c>
+      <c r="P67" t="s">
         <v>239</v>
       </c>
-      <c r="P67" t="s">
-        <v>240</v>
-      </c>
       <c r="Q67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,34 +5189,34 @@
         <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L68" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,34 +5242,34 @@
         <v>152</v>
       </c>
       <c r="H69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L69" t="s">
+        <v>222</v>
+      </c>
+      <c r="M69" t="s">
         <v>223</v>
       </c>
-      <c r="M69" t="s">
-        <v>224</v>
-      </c>
       <c r="N69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,34 +5295,34 @@
         <v>136</v>
       </c>
       <c r="H70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N70" t="s">
+        <v>236</v>
+      </c>
+      <c r="O70" t="s">
         <v>237</v>
       </c>
-      <c r="O70" t="s">
-        <v>238</v>
-      </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,34 +5348,34 @@
         <v>138</v>
       </c>
       <c r="H71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L71" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,34 +5401,34 @@
         <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O72" t="s">
+        <v>238</v>
+      </c>
+      <c r="P72" t="s">
         <v>239</v>
       </c>
-      <c r="P72" t="s">
-        <v>240</v>
-      </c>
       <c r="Q72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,34 +5454,34 @@
         <v>142</v>
       </c>
       <c r="H73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L73" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
